--- a/metrics/R2/average & upto/Retinopatía proliferativa.xlsx
+++ b/metrics/R2/average & upto/Retinopatía proliferativa.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8536257927918461</v>
+        <v>0.7555434844928056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.853625792791846</v>
+        <v>0.7555434844928056</v>
       </c>
       <c r="D2" t="n">
-        <v>0.853625792791846</v>
+        <v>0.7555434844928056</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9942906943568071</v>
+        <v>0.9709086634387343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9943391798094308</v>
+        <v>0.9720266692225052</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9943965195609803</v>
+        <v>0.9704469111536024</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9935416510055624</v>
+        <v>0.9558484273146373</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9935436319311821</v>
+        <v>0.9567474080285534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9935529929917976</v>
+        <v>0.9563524636424362</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9705409135956842</v>
+        <v>0.9603963450132109</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9709780826438525</v>
+        <v>0.9610760782920391</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9713553122705223</v>
+        <v>0.9590762147523392</v>
       </c>
     </row>
   </sheetData>
